--- a/teaching/traditional_assets/database/data/estonia/estonia_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/estonia/estonia_financial_svcs_non_bank_insurance.xlsx
@@ -590,9 +590,6 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D2">
-        <v>-0.278</v>
-      </c>
       <c r="G2">
         <v>0</v>
       </c>
@@ -600,16 +597,16 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-0.4854368932038836</v>
+        <v>1.38074398249453</v>
       </c>
       <c r="J2">
-        <v>-0.4854368932038836</v>
+        <v>1.38074398249453</v>
       </c>
       <c r="K2">
-        <v>-1.54</v>
+        <v>-2.41</v>
       </c>
       <c r="L2">
-        <v>-3.737864077669903</v>
+        <v>-5.273522975929978</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,70 +630,67 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.13</v>
+        <v>0.011</v>
       </c>
       <c r="V2">
-        <v>0.1171171171171171</v>
+        <v>0.006010928961748633</v>
       </c>
       <c r="W2">
-        <v>-0.1124087591240876</v>
+        <v>-0.2231481481481482</v>
       </c>
       <c r="X2">
-        <v>0.02801532215363055</v>
+        <v>0.04158987782926457</v>
       </c>
       <c r="Y2">
-        <v>-0.1404240812777182</v>
+        <v>-0.2647380259774127</v>
       </c>
       <c r="Z2">
-        <v>0.03055699770080843</v>
+        <v>0.04330522126409551</v>
       </c>
       <c r="AA2">
-        <v>-0.01483349402951866</v>
+        <v>0.05979342367099402</v>
       </c>
       <c r="AB2">
-        <v>0.02801532215363055</v>
+        <v>0.03189593031297479</v>
       </c>
       <c r="AC2">
-        <v>-0.04284881618314921</v>
+        <v>0.02789749335801923</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>6.04</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>6.04</v>
       </c>
       <c r="AG2">
-        <v>-0.13</v>
+        <v>6.029</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.7674714104193139</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>0.4649730561970747</v>
       </c>
       <c r="AJ2">
-        <v>-0.1326530612244898</v>
+        <v>0.7671459473215422</v>
       </c>
       <c r="AK2">
-        <v>-0.0127826941986234</v>
+        <v>0.4645196085985053</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>0.702</v>
       </c>
       <c r="AM2">
-        <v>-0.001</v>
-      </c>
-      <c r="AN2">
-        <v>-0</v>
-      </c>
-      <c r="AP2">
-        <v>0.8783783783783784</v>
+        <v>0.2379999999999999</v>
+      </c>
+      <c r="AO2">
+        <v>0.8988603988603989</v>
       </c>
       <c r="AQ2">
-        <v>200</v>
+        <v>2.651260504201681</v>
       </c>
     </row>
     <row r="3">
@@ -715,9 +709,6 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D3">
-        <v>-0.278</v>
-      </c>
       <c r="G3">
         <v>0</v>
       </c>
@@ -725,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-0.4854368932038836</v>
+        <v>1.38074398249453</v>
       </c>
       <c r="J3">
-        <v>-0.4854368932038836</v>
+        <v>1.38074398249453</v>
       </c>
       <c r="K3">
-        <v>-1.54</v>
+        <v>-2.41</v>
       </c>
       <c r="L3">
-        <v>-3.737864077669903</v>
+        <v>-5.273522975929978</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -758,70 +749,67 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.13</v>
+        <v>0.011</v>
       </c>
       <c r="V3">
-        <v>0.1171171171171171</v>
+        <v>0.006010928961748633</v>
       </c>
       <c r="W3">
-        <v>-0.1124087591240876</v>
+        <v>-0.2231481481481482</v>
       </c>
       <c r="X3">
-        <v>0.02801532215363055</v>
+        <v>0.04158987782926457</v>
       </c>
       <c r="Y3">
-        <v>-0.1404240812777182</v>
+        <v>-0.2647380259774127</v>
       </c>
       <c r="Z3">
-        <v>0.03055699770080843</v>
+        <v>0.04330522126409551</v>
       </c>
       <c r="AA3">
-        <v>-0.01483349402951866</v>
+        <v>0.05979342367099402</v>
       </c>
       <c r="AB3">
-        <v>0.02801532215363055</v>
+        <v>0.03189593031297479</v>
       </c>
       <c r="AC3">
-        <v>-0.04284881618314921</v>
+        <v>0.02789749335801923</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>6.04</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>6.04</v>
       </c>
       <c r="AG3">
-        <v>-0.13</v>
+        <v>6.029</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.7674714104193139</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>0.4649730561970747</v>
       </c>
       <c r="AJ3">
-        <v>-0.1326530612244898</v>
+        <v>0.7671459473215422</v>
       </c>
       <c r="AK3">
-        <v>-0.0127826941986234</v>
+        <v>0.4645196085985053</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>0.702</v>
       </c>
       <c r="AM3">
-        <v>-0.001</v>
-      </c>
-      <c r="AN3">
-        <v>-0</v>
-      </c>
-      <c r="AP3">
-        <v>0.8783783783783784</v>
+        <v>0.2379999999999999</v>
+      </c>
+      <c r="AO3">
+        <v>0.8988603988603989</v>
       </c>
       <c r="AQ3">
-        <v>200</v>
+        <v>2.651260504201681</v>
       </c>
     </row>
   </sheetData>
